--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Anton Maher Eweida Hakim</x:t>
   </x:si>
   <x:si>
+    <x:t>1240030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>اواب تامر ذكريا المغازى الشهاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ِAwab Tamer Zakaria</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240038</x:t>
   </x:si>
   <x:si>
@@ -114,15 +123,6 @@
     <x:t>Hamza Osama Mohamed Said</x:t>
   </x:si>
   <x:si>
-    <x:t>1240220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>حمزه الوليد محمد محمود الشناوي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hamza Alwaleed Mohamed Mahmoud Alshennawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240057</x:t>
   </x:si>
   <x:si>
@@ -202,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdelhamid Abdelmohsen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240124</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -731,7 +740,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.410625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -973,7 +982,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1005,7 +1014,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1037,7 +1046,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1069,7 +1078,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6651918634</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1421,7 +1430,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45920.0243170486</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1453,7 +1462,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1485,7 +1494,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1517,7 +1526,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1641,9 +1650,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,16 +1677,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Mohamed Abdelhamid Abdelmohsen</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240181</x:t>
-  </x:si>
-  <x:si>
-    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
-  </x:si>
-  <x:si>
-    <x:t>kenzy mohamed ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240124</x:t>
@@ -431,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1430,7 +1421,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45920.0243170486</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1462,7 +1453,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1494,7 +1485,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1526,7 +1517,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1558,7 +1549,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1590,7 +1581,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1622,7 +1613,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1650,11 +1641,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1677,14 +1666,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1748,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1780,7 +1771,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45907.6700143171</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1797,38 +1788,6 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
-    </x:row>
-    <x:row r="33" spans="1:20">
-      <x:c r="A33" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="E33" s="3">
-        <x:v>45907.6700143171</x:v>
-      </x:c>
-      <x:c r="F33" s="2" t="s"/>
-      <x:c r="G33" s="2" t="s"/>
-      <x:c r="H33" s="2" t="s"/>
-      <x:c r="I33" s="2" t="s"/>
-      <x:c r="J33" s="2" t="s"/>
-      <x:c r="K33" s="2" t="s"/>
-      <x:c r="L33" s="2" t="s"/>
-      <x:c r="M33" s="2" t="s"/>
-      <x:c r="N33" s="2" t="s"/>
-      <x:c r="O33" s="2" t="s"/>
-      <x:c r="P33" s="2" t="s"/>
-      <x:c r="Q33" s="2" t="s"/>
-      <x:c r="R33" s="2" t="s"/>
-      <x:c r="S33" s="2" t="s"/>
-      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -247,6 +247,15 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Tarek Abdelfattah Hassan Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240379</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند ياسر  صلاح حامد حسنين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohaned Yaser Salah Hamed Hasanien</x:t>
   </x:si>
   <x:si>
     <x:t>1240160</x:t>
@@ -422,7 +431,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -722,7 +731,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1581,7 +1590,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1613,7 +1622,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1641,9 +1650,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,16 +1677,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1707,7 +1716,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1739,7 +1748,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1771,7 +1780,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1788,6 +1797,38 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -307,6 +307,15 @@
   </x:si>
   <x:si>
     <x:t>Youssef ahmed elsayed ahmed metwaley</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250200</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف احمد محمد محمد عيسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yuossef Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240190</x:t>
@@ -431,7 +440,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -731,7 +740,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1812,7 +1821,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1829,6 +1838,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed ismail shoukry Ahmed ismail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد بركات صابر الطيب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
     <x:t>1200941</x:t>
@@ -440,7 +449,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -740,7 +749,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -863,7 +872,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6084403125</x:v>
+        <x:v>45922.4120554051</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -895,7 +904,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45906.6084403125</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6944696412</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45920.1161700579</x:v>
+        <x:v>45907.6944696412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1311,7 +1320,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1343,7 +1352,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.4858478819</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1375,7 +1384,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45915.4858478819</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1407,7 +1416,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1439,7 +1448,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1471,7 +1480,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1503,7 +1512,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1535,7 +1544,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1567,7 +1576,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1599,7 +1608,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1631,7 +1640,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1663,7 +1672,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1691,9 +1700,11 @@
       <x:c r="C29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1716,16 +1727,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
+      <x:c r="D30" s="2" t="s"/>
       <x:c r="E30" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1871,6 +1880,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1883,6 +1924,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Differential Equations (MTHS104) Location : [20504]20504-60-الجيزة الرئيسي Time : Thursday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -325,6 +325,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4230184</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف محمد فاروق قنديل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1240190</x:t>
@@ -449,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -749,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1894,7 +1903,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45924.8703841782</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1911,6 +1920,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -67,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed mohamed aly younes omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240289</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -767,7 +776,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -977,7 +986,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45925.3152131597</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6944696412</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.1161700579</x:v>
+        <x:v>45907.6944696412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1329,7 +1338,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1361,7 +1370,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1393,7 +1402,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.4858478819</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1425,7 +1434,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45915.4858478819</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1457,7 +1466,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1617,7 +1626,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1649,7 +1658,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1681,7 +1690,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1713,7 +1722,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1741,9 +1750,11 @@
       <x:c r="C30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s"/>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1766,16 +1777,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
+      <x:c r="D31" s="2" t="s"/>
       <x:c r="E31" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6822388542</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45924.8703841782</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45924.8703841782</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -334,15 +334,6 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف محمد فاروق قنديل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Mohamed Farouk Kandel</x:t>
   </x:si>
   <x:si>
     <x:t>1240190</x:t>
@@ -467,7 +458,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +758,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1944,7 +1935,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45924.8703841782</x:v>
+        <x:v>45907.6700143171</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1961,38 +1952,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.6700143171</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -69,15 +69,6 @@
     <x:t>Ahmed mohamed aly younes omar</x:t>
   </x:si>
   <x:si>
-    <x:t>1240018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد محمود محمد محمد خليفة</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240289</x:t>
   </x:si>
   <x:si>
@@ -168,6 +159,15 @@
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1240073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+  </x:si>
+  <x:si>
     <x:t>4230149</x:t>
   </x:si>
   <x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Ehab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1180022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر حسن بدر عبدالدايم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Hassan Badr Abdel - Dayem</x:t>
   </x:si>
   <x:si>
     <x:t>1220187</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -767,7 +776,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -977,7 +986,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45925.3152131597</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1009,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45907.6944696412</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1041,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6944696412</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1073,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.1161700579</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1105,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1137,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1169,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1201,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1233,7 +1242,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1265,7 +1274,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1297,7 +1306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45927.4402532407</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1489,7 +1498,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1521,7 +1530,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1553,7 +1562,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1585,7 +1594,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1617,7 +1626,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1649,7 +1658,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1681,7 +1690,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1713,7 +1722,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1745,7 +1754,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1773,9 +1782,11 @@
       <x:c r="C31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s"/>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1798,16 +1809,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C32" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6822388542</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سما طارق محمود جاب الله سيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sama Tarik Mahmoud Gaballah</x:t>
   </x:si>
   <x:si>
     <x:t>4230149</x:t>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1338,7 +1347,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.4858478819</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45915.4858478819</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1690,7 +1699,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1722,7 +1731,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1754,7 +1763,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1786,7 +1795,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1814,9 +1823,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,16 +1850,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2002,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,6 +51,15 @@
     <x:t>ahmed barakat saber eltyeb</x:t>
   </x:si>
   <x:si>
+    <x:t>1240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد حمدي احمد ابراهيم على</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Hamdy Ahmed Ibrahim Ali</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200941</x:t>
   </x:si>
   <x:si>
@@ -159,15 +168,6 @@
     <x:t>Zeyad Ahmad Aydarous Mohamed Attia</x:t>
   </x:si>
   <x:si>
-    <x:t>1240073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سليم اشرف عبدالرؤوف مصطفى فراج</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seleim Ashraf Abdel Raouf Mostafa</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240075</x:t>
   </x:si>
   <x:si>
@@ -202,15 +202,6 @@
   </x:si>
   <x:si>
     <x:t>Ali Mohamed Ali Soliman Aitah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1125371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد حامد امين</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Hamed Amin</x:t>
   </x:si>
   <x:si>
     <x:t>1240101</x:t>
@@ -476,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -931,7 +922,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6084403125</x:v>
+        <x:v>45928.4668278935</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -963,7 +954,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6665537847</x:v>
+        <x:v>45906.6084403125</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -995,7 +986,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45907.6665537847</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1027,7 +1018,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6944696412</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1059,7 +1050,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45920.1161700579</x:v>
+        <x:v>45907.6944696412</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1091,7 +1082,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1123,7 +1114,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1155,7 +1146,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1178,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1210,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1242,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1283,7 +1274,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1315,7 +1306,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4402532407</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1475,7 +1466,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.4858478819</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1507,7 +1498,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1539,7 +1530,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1571,7 +1562,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1603,7 +1594,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1635,7 +1626,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1667,7 +1658,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1699,7 +1690,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1731,7 +1722,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1763,7 +1754,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1795,7 +1786,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1823,11 +1814,9 @@
       <x:c r="C32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
+      <x:c r="D32" s="2" t="s"/>
       <x:c r="E32" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1850,14 +1839,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1889,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1921,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1953,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1985,7 +1976,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6700143171</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2002,38 +1993,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.6700143171</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ahmed mohamed aly younes omar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمود محمد محمد خليفة</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmad Mahmoud Mohamed Mohamed Khalifa</x:t>
   </x:si>
   <x:si>
     <x:t>1240289</x:t>
@@ -467,7 +476,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -767,7 +776,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -776,7 +785,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="34.020625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.710625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.140625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -1018,7 +1027,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6690027431</x:v>
+        <x:v>45928.7044315972</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1050,7 +1059,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6944696412</x:v>
+        <x:v>45907.6690027431</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1082,7 +1091,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45920.1161700579</x:v>
+        <x:v>45907.6944696412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1114,7 +1123,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45920.1161700579</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1146,7 +1155,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1178,7 +1187,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1210,7 +1219,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1242,7 +1251,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1274,7 +1283,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1306,7 +1315,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1338,7 +1347,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45927.763043287</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1370,7 +1379,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1402,7 +1411,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1434,7 +1443,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1466,7 +1475,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1498,7 +1507,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1530,7 +1539,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1562,7 +1571,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1594,7 +1603,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1626,7 +1635,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1658,7 +1667,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1690,7 +1699,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1722,7 +1731,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1754,7 +1763,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1786,7 +1795,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1814,9 +1823,11 @@
       <x:c r="C32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s"/>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,16 +1850,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1993,6 +2002,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,6 +114,15 @@
     <x:t>ِAwab Tamer Zakaria</x:t>
   </x:si>
   <x:si>
+    <x:t>1240036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>برتى سمير تاوضروس بسالى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>berty samir tawadros</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240038</x:t>
   </x:si>
   <x:si>
@@ -267,6 +276,15 @@
     <x:t>Mohamed Gamal Mohamed Attia</x:t>
   </x:si>
   <x:si>
+    <x:t>1220314</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد وليد محمد جاد الكريم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mohamed waleed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1138385</x:t>
   </x:si>
   <x:si>
@@ -352,6 +370,15 @@
   </x:si>
   <x:si>
     <x:t>Yuossef Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف عادل محمد حمزاوي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Youssef Hamzawi</x:t>
   </x:si>
   <x:si>
     <x:t>1240190</x:t>
@@ -476,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -776,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1155,7 +1182,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45929.3222434028</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1187,7 +1214,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1219,7 +1246,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1251,7 +1278,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1283,7 +1310,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1315,7 +1342,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1347,7 +1374,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1379,7 +1406,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.763043287</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1411,7 +1438,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1443,7 +1470,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1475,7 +1502,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1507,7 +1534,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1539,7 +1566,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1571,7 +1598,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1603,7 +1630,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1635,7 +1662,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1667,7 +1694,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1699,7 +1726,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1731,7 +1758,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45929.553980706</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1763,7 +1790,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1795,7 +1822,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1827,7 +1854,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1855,9 +1882,11 @@
       <x:c r="C33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s"/>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1880,16 +1909,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
-        <x:v>100</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="C34" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>102</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s">
-        <x:v>102</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1912,16 +1941,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
-        <x:v>103</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="C35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1953,7 +1980,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1985,7 +2012,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2017,7 +2044,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2034,6 +2061,102 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
+    </x:row>
+    <x:row r="39" spans="1:20">
+      <x:c r="A39" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B39" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="C39" s="2" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="D39" s="2" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="E39" s="3">
+        <x:v>45921.9304752315</x:v>
+      </x:c>
+      <x:c r="F39" s="2" t="s"/>
+      <x:c r="G39" s="2" t="s"/>
+      <x:c r="H39" s="2" t="s"/>
+      <x:c r="I39" s="2" t="s"/>
+      <x:c r="J39" s="2" t="s"/>
+      <x:c r="K39" s="2" t="s"/>
+      <x:c r="L39" s="2" t="s"/>
+      <x:c r="M39" s="2" t="s"/>
+      <x:c r="N39" s="2" t="s"/>
+      <x:c r="O39" s="2" t="s"/>
+      <x:c r="P39" s="2" t="s"/>
+      <x:c r="Q39" s="2" t="s"/>
+      <x:c r="R39" s="2" t="s"/>
+      <x:c r="S39" s="2" t="s"/>
+      <x:c r="T39" s="2" t="s"/>
+    </x:row>
+    <x:row r="40" spans="1:20">
+      <x:c r="A40" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="D40" s="2" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="E40" s="3">
+        <x:v>45929.5352154282</x:v>
+      </x:c>
+      <x:c r="F40" s="2" t="s"/>
+      <x:c r="G40" s="2" t="s"/>
+      <x:c r="H40" s="2" t="s"/>
+      <x:c r="I40" s="2" t="s"/>
+      <x:c r="J40" s="2" t="s"/>
+      <x:c r="K40" s="2" t="s"/>
+      <x:c r="L40" s="2" t="s"/>
+      <x:c r="M40" s="2" t="s"/>
+      <x:c r="N40" s="2" t="s"/>
+      <x:c r="O40" s="2" t="s"/>
+      <x:c r="P40" s="2" t="s"/>
+      <x:c r="Q40" s="2" t="s"/>
+      <x:c r="R40" s="2" t="s"/>
+      <x:c r="S40" s="2" t="s"/>
+      <x:c r="T40" s="2" t="s"/>
+    </x:row>
+    <x:row r="41" spans="1:20">
+      <x:c r="A41" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B41" s="2" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C41" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="D41" s="2" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="E41" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F41" s="2" t="s"/>
+      <x:c r="G41" s="2" t="s"/>
+      <x:c r="H41" s="2" t="s"/>
+      <x:c r="I41" s="2" t="s"/>
+      <x:c r="J41" s="2" t="s"/>
+      <x:c r="K41" s="2" t="s"/>
+      <x:c r="L41" s="2" t="s"/>
+      <x:c r="M41" s="2" t="s"/>
+      <x:c r="N41" s="2" t="s"/>
+      <x:c r="O41" s="2" t="s"/>
+      <x:c r="P41" s="2" t="s"/>
+      <x:c r="Q41" s="2" t="s"/>
+      <x:c r="R41" s="2" t="s"/>
+      <x:c r="S41" s="2" t="s"/>
+      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -130,6 +130,15 @@
   </x:si>
   <x:si>
     <x:t>Belal Hamdy Ahmad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2230016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جمانة جمال شريف فاضل</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230169</x:t>
@@ -503,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +812,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T42"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1246,7 +1255,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45931.3040679745</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1278,7 +1287,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1310,7 +1319,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1342,7 +1351,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1374,7 +1383,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1406,7 +1415,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1438,7 +1447,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.763043287</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1470,7 +1479,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1502,7 +1511,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1534,7 +1543,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1566,7 +1575,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,7 +1607,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1630,7 +1639,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1662,7 +1671,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1694,7 +1703,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1726,7 +1735,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1758,7 +1767,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.553980706</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1790,7 +1799,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45929.553980706</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1822,7 +1831,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1854,7 +1863,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1886,7 +1895,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1918,7 +1927,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1946,9 +1955,11 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1971,16 +1982,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
+      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,7 +2021,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2044,7 +2053,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2076,7 +2085,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2108,7 +2117,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45929.5352154282</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2140,7 +2149,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6700143171</x:v>
+        <x:v>45929.5352154282</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2157,6 +2166,38 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
+    </x:row>
+    <x:row r="42" spans="1:20">
+      <x:c r="A42" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B42" s="2" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="C42" s="2" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="D42" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="E42" s="3">
+        <x:v>45907.6700143171</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s"/>
+      <x:c r="G42" s="2" t="s"/>
+      <x:c r="H42" s="2" t="s"/>
+      <x:c r="I42" s="2" t="s"/>
+      <x:c r="J42" s="2" t="s"/>
+      <x:c r="K42" s="2" t="s"/>
+      <x:c r="L42" s="2" t="s"/>
+      <x:c r="M42" s="2" t="s"/>
+      <x:c r="N42" s="2" t="s"/>
+      <x:c r="O42" s="2" t="s"/>
+      <x:c r="P42" s="2" t="s"/>
+      <x:c r="Q42" s="2" t="s"/>
+      <x:c r="R42" s="2" t="s"/>
+      <x:c r="S42" s="2" t="s"/>
+      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -175,15 +175,6 @@
   </x:si>
   <x:si>
     <x:t>Rasha Hamdy Ahmed El Desouky</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230147</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">رنا محمد رفاعى محمد رفاعى </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Mohamed Refaay Mohamed Refaay</x:t>
   </x:si>
   <x:si>
     <x:t>1240064</x:t>
@@ -512,7 +503,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E42" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -812,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T42"/>
+  <x:dimension ref="A1:T41"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1415,7 +1406,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1447,7 +1438,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1479,7 +1470,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.763043287</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1511,7 +1502,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1543,7 +1534,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1575,7 +1566,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1607,7 +1598,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1639,7 +1630,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1671,7 +1662,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1703,7 +1694,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1735,7 +1726,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1767,7 +1758,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45929.553980706</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1799,7 +1790,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45929.553980706</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1831,7 +1822,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1863,7 +1854,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1895,7 +1886,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1927,7 +1918,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1955,11 +1946,9 @@
       <x:c r="C35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
+      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1982,14 +1971,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
       </x:c>
-      <x:c r="D36" s="2" t="s"/>
       <x:c r="E36" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2021,7 +2012,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2053,7 +2044,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2085,7 +2076,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2117,7 +2108,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45929.5352154282</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2149,7 +2140,7 @@
         <x:v>123</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45929.5352154282</x:v>
+        <x:v>45907.6700143171</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2166,38 +2157,6 @@
       <x:c r="R41" s="2" t="s"/>
       <x:c r="S41" s="2" t="s"/>
       <x:c r="T41" s="2" t="s"/>
-    </x:row>
-    <x:row r="42" spans="1:20">
-      <x:c r="A42" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B42" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="C42" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
-      <x:c r="D42" s="2" t="s">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="E42" s="3">
-        <x:v>45907.6700143171</x:v>
-      </x:c>
-      <x:c r="F42" s="2" t="s"/>
-      <x:c r="G42" s="2" t="s"/>
-      <x:c r="H42" s="2" t="s"/>
-      <x:c r="I42" s="2" t="s"/>
-      <x:c r="J42" s="2" t="s"/>
-      <x:c r="K42" s="2" t="s"/>
-      <x:c r="L42" s="2" t="s"/>
-      <x:c r="M42" s="2" t="s"/>
-      <x:c r="N42" s="2" t="s"/>
-      <x:c r="O42" s="2" t="s"/>
-      <x:c r="P42" s="2" t="s"/>
-      <x:c r="Q42" s="2" t="s"/>
-      <x:c r="R42" s="2" t="s"/>
-      <x:c r="S42" s="2" t="s"/>
-      <x:c r="T42" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS104_Lecture-35075.xlsx
+++ b/downloaded_files/MTHS104_Lecture-35075.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -114,15 +114,6 @@
     <x:t>ِAwab Tamer Zakaria</x:t>
   </x:si>
   <x:si>
-    <x:t>1240036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>برتى سمير تاوضروس بسالى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>berty samir tawadros</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240038</x:t>
   </x:si>
   <x:si>
@@ -130,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Belal Hamdy Ahmad</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2230016</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جمانة جمال شريف فاضل</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> GUMANA GAMAL SHARIF FADHEL</x:t>
   </x:si>
   <x:si>
     <x:t>1230169</x:t>
@@ -503,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E41" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -803,7 +785,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T41"/>
+  <x:dimension ref="A1:T39"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1182,7 +1164,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45929.3222434028</x:v>
+        <x:v>45909.8024461806</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1214,7 +1196,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.8024461806</x:v>
+        <x:v>45907.6656269329</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1246,7 +1228,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45931.3040679745</x:v>
+        <x:v>45907.4145934375</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1278,7 +1260,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6656269329</x:v>
+        <x:v>45907.6656168981</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1310,7 +1292,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145934375</x:v>
+        <x:v>45907.6662652778</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1342,7 +1324,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6656168981</x:v>
+        <x:v>45907.6756114236</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1374,7 +1356,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662652778</x:v>
+        <x:v>45927.763043287</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1406,7 +1388,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6756114236</x:v>
+        <x:v>45907.4157636921</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1438,7 +1420,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.763043287</x:v>
+        <x:v>45909.6531043981</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1470,7 +1452,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4157636921</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1502,7 +1484,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45909.6531043981</x:v>
+        <x:v>45907.6808685185</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1534,7 +1516,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45927.472271875</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1566,7 +1548,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6808685185</x:v>
+        <x:v>45907.4146219907</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1598,7 +1580,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45927.472271875</x:v>
+        <x:v>45907.6784352662</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1630,7 +1612,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4146219907</x:v>
+        <x:v>45907.6652585301</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1662,7 +1644,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6784352662</x:v>
+        <x:v>45906.6645383102</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1694,7 +1676,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652585301</x:v>
+        <x:v>45929.553980706</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1726,7 +1708,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.6645383102</x:v>
+        <x:v>45915.0196106134</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1758,7 +1740,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45929.553980706</x:v>
+        <x:v>45907.6751492708</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1790,7 +1772,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.0196106134</x:v>
+        <x:v>45921.3207721875</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1822,7 +1804,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6751492708</x:v>
+        <x:v>45907.6848969907</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1854,7 +1836,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45921.3207721875</x:v>
+        <x:v>45909.7410874653</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1882,11 +1864,9 @@
       <x:c r="C33" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="D33" s="2" t="s"/>
       <x:c r="E33" s="3">
-        <x:v>45907.6848969907</x:v>
+        <x:v>45907.6674726042</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1909,16 +1889,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
       </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
-      </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.7410874653</x:v>
+        <x:v>45909.6645228357</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1941,14 +1921,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
       </x:c>
-      <x:c r="D35" s="2" t="s"/>
       <x:c r="E35" s="3">
-        <x:v>45907.6674726042</x:v>
+        <x:v>45909.6672143519</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1980,7 +1962,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45909.6645228357</x:v>
+        <x:v>45927.4867070949</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2012,7 +1994,7 @@
         <x:v>111</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.6672143519</x:v>
+        <x:v>45921.9304752315</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2044,7 +2026,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45927.4867070949</x:v>
+        <x:v>45929.5352154282</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2076,7 +2058,7 @@
         <x:v>117</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45921.9304752315</x:v>
+        <x:v>45907.6700143171</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2093,70 +2075,6 @@
       <x:c r="R39" s="2" t="s"/>
       <x:c r="S39" s="2" t="s"/>
       <x:c r="T39" s="2" t="s"/>
-    </x:row>
-    <x:row r="40" spans="1:20">
-      <x:c r="A40" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="D40" s="2" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="E40" s="3">
-        <x:v>45929.5352154282</x:v>
-      </x:c>
-      <x:c r="F40" s="2" t="s"/>
-      <x:c r="G40" s="2" t="s"/>
-      <x:c r="H40" s="2" t="s"/>
-      <x:c r="I40" s="2" t="s"/>
-      <x:c r="J40" s="2" t="s"/>
-      <x:c r="K40" s="2" t="s"/>
-      <x:c r="L40" s="2" t="s"/>
-      <x:c r="M40" s="2" t="s"/>
-      <x:c r="N40" s="2" t="s"/>
-      <x:c r="O40" s="2" t="s"/>
-      <x:c r="P40" s="2" t="s"/>
-      <x:c r="Q40" s="2" t="s"/>
-      <x:c r="R40" s="2" t="s"/>
-      <x:c r="S40" s="2" t="s"/>
-      <x:c r="T40" s="2" t="s"/>
-    </x:row>
-    <x:row r="41" spans="1:20">
-      <x:c r="A41" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="C41" s="2" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="D41" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="E41" s="3">
-        <x:v>45907.6700143171</x:v>
-      </x:c>
-      <x:c r="F41" s="2" t="s"/>
-      <x:c r="G41" s="2" t="s"/>
-      <x:c r="H41" s="2" t="s"/>
-      <x:c r="I41" s="2" t="s"/>
-      <x:c r="J41" s="2" t="s"/>
-      <x:c r="K41" s="2" t="s"/>
-      <x:c r="L41" s="2" t="s"/>
-      <x:c r="M41" s="2" t="s"/>
-      <x:c r="N41" s="2" t="s"/>
-      <x:c r="O41" s="2" t="s"/>
-      <x:c r="P41" s="2" t="s"/>
-      <x:c r="Q41" s="2" t="s"/>
-      <x:c r="R41" s="2" t="s"/>
-      <x:c r="S41" s="2" t="s"/>
-      <x:c r="T41" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
